--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H2">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>31.039458364525</v>
+        <v>14.98536842271733</v>
       </c>
       <c r="R2">
-        <v>279.355125280725</v>
+        <v>134.868315804456</v>
       </c>
       <c r="S2">
-        <v>0.04306874846864886</v>
+        <v>0.02503504398343274</v>
       </c>
       <c r="T2">
-        <v>0.04306874846864887</v>
+        <v>0.02503504398343275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H3">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>223.9386653419083</v>
+        <v>97.86198623057</v>
       </c>
       <c r="R3">
-        <v>2015.447988077175</v>
+        <v>880.7578760751301</v>
       </c>
       <c r="S3">
-        <v>0.3107257200415127</v>
+        <v>0.1634914177935272</v>
       </c>
       <c r="T3">
-        <v>0.3107257200415127</v>
+        <v>0.1634914177935272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H4">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>88.75858466406945</v>
+        <v>65.73379215517068</v>
       </c>
       <c r="R4">
-        <v>798.8272619766249</v>
+        <v>591.6041293965361</v>
       </c>
       <c r="S4">
-        <v>0.123156825497286</v>
+        <v>0.1098170115929732</v>
       </c>
       <c r="T4">
-        <v>0.123156825497286</v>
+        <v>0.1098170115929732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H5">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.3369611893077778</v>
+        <v>2.598240355096667</v>
       </c>
       <c r="R5">
-        <v>3.03265070377</v>
+        <v>23.38416319587</v>
       </c>
       <c r="S5">
-        <v>0.0004675499338796384</v>
+        <v>0.004340704861868176</v>
       </c>
       <c r="T5">
-        <v>0.0004675499338796384</v>
+        <v>0.004340704861868177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N6">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O6">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P6">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q6">
-        <v>9.061864825714999</v>
+        <v>10.01119520343511</v>
       </c>
       <c r="R6">
-        <v>81.55678343143501</v>
+        <v>90.100756830916</v>
       </c>
       <c r="S6">
-        <v>0.01257377536206207</v>
+        <v>0.01672502838600757</v>
       </c>
       <c r="T6">
-        <v>0.01257377536206207</v>
+        <v>0.01672502838600757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q7">
         <v>65.37813549281165</v>
@@ -883,10 +883,10 @@
         <v>588.403219435305</v>
       </c>
       <c r="S7">
-        <v>0.0907153224074063</v>
+        <v>0.1092228400027932</v>
       </c>
       <c r="T7">
-        <v>0.09071532240740633</v>
+        <v>0.1092228400027933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N8">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q8">
-        <v>25.91276841566389</v>
+        <v>43.91442413453289</v>
       </c>
       <c r="R8">
-        <v>233.214915740975</v>
+        <v>395.229817210796</v>
       </c>
       <c r="S8">
-        <v>0.03595521841631386</v>
+        <v>0.07336486556102932</v>
       </c>
       <c r="T8">
-        <v>0.03595521841631386</v>
+        <v>0.07336486556102934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N9">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q9">
-        <v>0.09837467887355555</v>
+        <v>1.735792584243889</v>
       </c>
       <c r="R9">
-        <v>0.885372109862</v>
+        <v>15.622133258195</v>
       </c>
       <c r="S9">
-        <v>0.0001364996209125734</v>
+        <v>0.002899871559165993</v>
       </c>
       <c r="T9">
-        <v>0.0001364996209125734</v>
+        <v>0.002899871559165993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H10">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N10">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O10">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P10">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q10">
-        <v>21.102119264005</v>
+        <v>14.45694398205778</v>
       </c>
       <c r="R10">
-        <v>189.919073376045</v>
+        <v>130.11249583852</v>
       </c>
       <c r="S10">
-        <v>0.02928021024283002</v>
+        <v>0.02415224092242972</v>
       </c>
       <c r="T10">
-        <v>0.02928021024283003</v>
+        <v>0.02415224092242972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H11">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>123.860985</v>
       </c>
       <c r="O11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q11">
-        <v>152.2442939683483</v>
+        <v>94.41110908981665</v>
       </c>
       <c r="R11">
-        <v>1370.198645715135</v>
+        <v>849.6999818083499</v>
       </c>
       <c r="S11">
-        <v>0.211246315116239</v>
+        <v>0.1577262701799914</v>
       </c>
       <c r="T11">
-        <v>0.211246315116239</v>
+        <v>0.1577262701799915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H12">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N12">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q12">
-        <v>60.34236220520278</v>
+        <v>63.41584164690222</v>
       </c>
       <c r="R12">
-        <v>543.081259846825</v>
+        <v>570.7425748221199</v>
       </c>
       <c r="S12">
-        <v>0.08372794361612412</v>
+        <v>0.105944568067464</v>
       </c>
       <c r="T12">
-        <v>0.08372794361612414</v>
+        <v>0.105944568067464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H13">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N13">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q13">
-        <v>0.2290824511371111</v>
+        <v>2.506619404072222</v>
       </c>
       <c r="R13">
-        <v>2.061742060234</v>
+        <v>22.55957463665</v>
       </c>
       <c r="S13">
-        <v>0.0003178629714068068</v>
+        <v>0.004187639920520208</v>
       </c>
       <c r="T13">
-        <v>0.0003178629714068069</v>
+        <v>0.004187639920520208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H14">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N14">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O14">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P14">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q14">
-        <v>3.811708829435</v>
+        <v>10.05475711265422</v>
       </c>
       <c r="R14">
-        <v>34.30537946491501</v>
+        <v>90.49281401388801</v>
       </c>
       <c r="S14">
-        <v>0.005288930202412578</v>
+        <v>0.01679780432868306</v>
       </c>
       <c r="T14">
-        <v>0.005288930202412579</v>
+        <v>0.01679780432868306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H15">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>123.860985</v>
       </c>
       <c r="O15">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P15">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q15">
-        <v>27.50012509597167</v>
+        <v>65.66261665069332</v>
       </c>
       <c r="R15">
-        <v>247.501125863745</v>
+        <v>590.96354985624</v>
       </c>
       <c r="S15">
-        <v>0.03815775251956162</v>
+        <v>0.1096981034797478</v>
       </c>
       <c r="T15">
-        <v>0.03815775251956162</v>
+        <v>0.1096981034797478</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H16">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N16">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O16">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P16">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q16">
-        <v>10.89973532653056</v>
+        <v>44.10550982596978</v>
       </c>
       <c r="R16">
-        <v>98.097617938775</v>
+        <v>396.949588433728</v>
       </c>
       <c r="S16">
-        <v>0.01512390949739353</v>
+        <v>0.07368409953344705</v>
       </c>
       <c r="T16">
-        <v>0.01512390949739353</v>
+        <v>0.07368409953344705</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H17">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N17">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O17">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P17">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q17">
-        <v>0.04137952168422222</v>
+        <v>1.743345572417778</v>
       </c>
       <c r="R17">
-        <v>0.372415695158</v>
+        <v>15.69011015176</v>
       </c>
       <c r="S17">
-        <v>5.741608601030242E-05</v>
+        <v>0.00291248982691929</v>
       </c>
       <c r="T17">
-        <v>5.741608601030242E-05</v>
+        <v>0.00291248982691929</v>
       </c>
     </row>
   </sheetData>
